--- a/data/sector_correlations/2014_intra.xlsx
+++ b/data/sector_correlations/2014_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,411 +448,381 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5177394474699221</v>
+        <v>0.6117445464417549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4582792919175851</v>
+        <v>0.502640014568374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4499600019240166</v>
+        <v>0.4821385972405633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4138606585033447</v>
+        <v>0.4674867790683934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gas Utilities(13)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4107867574953412</v>
+        <v>0.456085570281568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Water Utilities(13)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3708242474401502</v>
+        <v>0.4228573107356991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.348101793980197</v>
+        <v>0.4138606585033447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(14)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3353854481183191</v>
+        <v>0.3910516778365106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Water Utilities(12)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3301939489514564</v>
+        <v>0.3904295022997293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3283702438566057</v>
+        <v>0.3735498953362092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(23)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3276699124076161</v>
+        <v>0.3684458161108561</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Airlines(15)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3176445929110232</v>
+        <v>0.3549270385176713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2900302123487749</v>
+        <v>0.3459578419204664</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2890711807431347</v>
+        <v>0.3177504155016216</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2777016251817215</v>
+        <v>0.313964282229209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shell Companies(18)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2567488851392575</v>
+        <v>0.2858472029886769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Specialty Retail(63)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2512812231240348</v>
+        <v>0.2646615236424472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2485364010300983</v>
+        <v>0.2646001487063055</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2395221659897986</v>
+        <v>0.2635153245892091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2360269842640008</v>
+        <v>0.2521303549963045</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Beverages(22)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2295272256094217</v>
+        <v>0.2331922912862205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(21)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2233671992205338</v>
+        <v>0.2212130460900358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2121775863996904</v>
+        <v>0.2174162042938039</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2112614924314371</v>
+        <v>0.2172100384495448</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2039806153778739</v>
+        <v>0.2150374974613652</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Food Products(47)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2028869547810147</v>
+        <v>0.2050837148192892</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Consumer Finance(23)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.196906894445722</v>
+        <v>0.19985448571264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1873997086913722</v>
+        <v>0.1868380093077185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Electrical Equipment(31)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1803277902500316</v>
+        <v>0.1786006896993373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1732238884272131</v>
+        <v>0.1747394250851111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1622364495171654</v>
+        <v>0.1671865513529269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Media(47)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1577069018282581</v>
+        <v>0.1610382427600499</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1547367588306302</v>
+        <v>0.1543685246506317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1489578073008351</v>
+        <v>0.1439368399565081</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1411082254231369</v>
+        <v>0.1436270686000481</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1266916975463253</v>
+        <v>0.1288975452186246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1261383737527724</v>
+        <v>0.1206784113690283</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1213030901535206</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Professional Services(38)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1172013635096316</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Biotechnology(163)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.1020897381859769</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Communications Equipment(50)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.08657520084918705</v>
+        <v>0.1169280115719262</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2014_intra.xlsx
+++ b/data/sector_correlations/2014_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,180 +648,190 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Beverages(21)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2331922912862205</v>
+        <v>0.2380726288127167</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2212130460900358</v>
+        <v>0.2331922912862205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2174162042938039</v>
+        <v>0.2212130460900358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2172100384495448</v>
+        <v>0.2174162042938039</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2150374974613652</v>
+        <v>0.2172100384495448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2050837148192892</v>
+        <v>0.2150374974613652</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.19985448571264</v>
+        <v>0.2050837148192892</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1868380093077185</v>
+        <v>0.19985448571264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1786006896993373</v>
+        <v>0.1868380093077185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1747394250851111</v>
+        <v>0.1786006896993373</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1671865513529269</v>
+        <v>0.1747394250851111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1610382427600499</v>
+        <v>0.1671865513529269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1543685246506317</v>
+        <v>0.1610382427600499</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1439368399565081</v>
+        <v>0.1543685246506317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1436270686000481</v>
+        <v>0.1439368399565081</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1288975452186246</v>
+        <v>0.1436270686000481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1206784113690283</v>
+        <v>0.1288975452186246</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Professional Services(35)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1206784113690283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Biotechnology(126)</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>0.1169280115719262</v>
       </c>
     </row>

--- a/data/sector_correlations/2014_intra.xlsx
+++ b/data/sector_correlations/2014_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,51 +458,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.502640014568374</v>
+        <v>0.5988708624376126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gas Utilities(12)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4821385972405633</v>
+        <v>0.5153060969412959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Electric Utilities(28)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4674867790683934</v>
+        <v>0.4821385972405633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(12)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.456085570281568</v>
+        <v>0.4674867790683934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4228573107356991</v>
+        <v>0.456085570281568</v>
       </c>
     </row>
     <row r="8">
@@ -518,171 +518,171 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(22)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3910516778365106</v>
+        <v>0.4017442862401979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Water Utilities(12)</t>
+          <t>Water Utilities(13)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3904295022997293</v>
+        <v>0.3965462135739523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Airlines(14)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3735498953362092</v>
+        <v>0.392744887598505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3684458161108561</v>
+        <v>0.3910516778365106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3549270385176713</v>
+        <v>0.3735498953362092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3459578419204664</v>
+        <v>0.3684458161108561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3177504155016216</v>
+        <v>0.3549270385176713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Consumer Finance(15)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.313964282229209</v>
+        <v>0.3348708892091944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2858472029886769</v>
+        <v>0.3221467359032978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Consumer Finance(15)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2646615236424472</v>
+        <v>0.313964282229209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2646001487063055</v>
+        <v>0.2858472029886769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2635153245892091</v>
+        <v>0.2826164174883211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2521303549963045</v>
+        <v>0.2649479192565335</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Specialty Retail(59)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2380726288127167</v>
+        <v>0.2562099084735468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Beverages(21)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2331922912862205</v>
+        <v>0.2382268397618954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Diversified Telecommunication Services(20)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2212130460900358</v>
+        <v>0.2331922912862205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Diversified Telecommunication Services(20)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2174162042938039</v>
+        <v>0.2212130460900358</v>
       </c>
     </row>
     <row r="26">
@@ -718,121 +718,151 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Food Products(46)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.19985448571264</v>
+        <v>0.2033598289252081</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1868380093077185</v>
+        <v>0.1940524742878438</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Electrical Equipment(28)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1786006896993373</v>
+        <v>0.1897463429052012</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1747394250851111</v>
+        <v>0.185583639201866</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1671865513529269</v>
+        <v>0.1786006896993373</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1610382427600499</v>
+        <v>0.174519479906335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1543685246506317</v>
+        <v>0.173639923536319</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1439368399565081</v>
+        <v>0.1559017170676578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1436270686000481</v>
+        <v>0.1550543089569059</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1288975452186246</v>
+        <v>0.1543685246506317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1206784113690283</v>
+        <v>0.1435751384315967</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Software(70)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1169280115719262</v>
+        <v>0.1293237566513953</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IT Services(52)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1288975452186246</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Professional Services(35)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1206784113690283</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Biotechnology(128)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1168665944579907</v>
       </c>
     </row>
   </sheetData>
